--- a/Documentos/Planeamiento.xlsx
+++ b/Documentos/Planeamiento.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisby\Google Drive\Ulatina\Microcontroladores\FLER\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\1_Universidad\Microcontroladores\Github\FLER\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8695FC9E-10A3-411F-86A6-5387D7730CCF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18620" windowHeight="11140" xr2:uid="{DDD8206C-A774-4D40-8FF0-29BCC4726AE3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="11145" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Código motores" sheetId="1" r:id="rId1"/>
+    <sheet name="Seteos modelo cinemático" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="8">
-  <si>
-    <t>código</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
   <si>
     <t>posición</t>
   </si>
@@ -54,13 +51,34 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>Zona 1</t>
+  </si>
+  <si>
+    <t>Zona 2</t>
+  </si>
+  <si>
+    <t>Zona 3</t>
+  </si>
+  <si>
+    <t>Rango (°)</t>
+  </si>
+  <si>
+    <t>0 - 90</t>
+  </si>
+  <si>
+    <t>Cero trabajo (°)</t>
+  </si>
+  <si>
+    <t>0 - 135</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,16 +86,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -85,12 +117,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,209 +459,235 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93CD181-AB5B-4769-B8A2-172FA007DD13}">
-  <dimension ref="B2:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B3">
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3">
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B4">
-        <f>B3+1</f>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B5">
-        <f t="shared" ref="B5:B14" si="0">B4+1</f>
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:J6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B10">
-        <f t="shared" si="0"/>
+      <c r="D4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B11">
-        <f t="shared" si="0"/>
+      <c r="G4" s="3"/>
+      <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B12">
-        <f t="shared" si="0"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B13">
-        <f t="shared" si="0"/>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1">
+        <v>90</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
+      <c r="J6" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:J4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>